--- a/Morais/ASTS.xlsx
+++ b/Morais/ASTS.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\OneDrive - ISEG\Desktop\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://phdisegutl-my.sharepoint.com/personal/l59357_aln_iseg_ulisboa_pt/Documents/Desktop/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1098E479-6D45-4E5F-85E8-F47A96F900A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{1098E479-6D45-4E5F-85E8-F47A96F900A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEE3A180-D3F3-4084-9BC3-EA9308EF911B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{407585AE-1F7D-4D74-89A4-F5DF8D12E245}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="model" sheetId="2" r:id="rId2"/>
+    <sheet name="Holders" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="178">
   <si>
     <t>Ticket</t>
   </si>
@@ -97,24 +98,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>AT&amp;T</t>
-  </si>
-  <si>
-    <t>VODAFONE</t>
-  </si>
-  <si>
-    <t>Rakuten Mobile</t>
-  </si>
-  <si>
-    <t>Verizon</t>
-  </si>
-  <si>
-    <t>American Tower Corporation</t>
-  </si>
-  <si>
-    <t>Bell Canada</t>
-  </si>
-  <si>
     <t>Founder</t>
   </si>
   <si>
@@ -142,24 +125,9 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t xml:space="preserve">5,6 billion phones </t>
-  </si>
-  <si>
-    <t>$1,1T TAM</t>
-  </si>
-  <si>
-    <t>90% of earth surface doesnt have cellular coverage</t>
-  </si>
-  <si>
     <t>Strategic Partners(Investors)</t>
   </si>
   <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>First 5 commercial satellites lauched successfully</t>
-  </si>
-  <si>
     <t>Revenue</t>
   </si>
   <si>
@@ -196,9 +164,6 @@
     <t>Insider %</t>
   </si>
   <si>
-    <t>CEO Avellan owns a 25% economic interest in the Company and takes no salary</t>
-  </si>
-  <si>
     <t>Satellites</t>
   </si>
   <si>
@@ -266,18 +231,397 @@
   </si>
   <si>
     <t>FCF Margin</t>
+  </si>
+  <si>
+    <t>Holders</t>
+  </si>
+  <si>
+    <t>VANGUARD GROUP INC</t>
+  </si>
+  <si>
+    <t>BlackRock, Inc.</t>
+  </si>
+  <si>
+    <t>SUSQUEHANNA INTERNATIONAL GROUP, LLP</t>
+  </si>
+  <si>
+    <t>D. E. Shaw &amp; Co., Inc.</t>
+  </si>
+  <si>
+    <t>CITADEL ADVISORS LLC</t>
+  </si>
+  <si>
+    <t>Broad Run Investment Management, LLC</t>
+  </si>
+  <si>
+    <t>HENDERSON GROUP PLC</t>
+  </si>
+  <si>
+    <t>GEODE CAPITAL MANAGEMENT, LLC</t>
+  </si>
+  <si>
+    <t>STATE STREET CORP</t>
+  </si>
+  <si>
+    <t>MORGAN STANLEY</t>
+  </si>
+  <si>
+    <t>T. Rowe Price Investment Management, Inc.</t>
+  </si>
+  <si>
+    <t>CITIGROUP INC</t>
+  </si>
+  <si>
+    <t>JANE STREET GROUP, LLC</t>
+  </si>
+  <si>
+    <t>NOMURA HOLDINGS INC</t>
+  </si>
+  <si>
+    <t>WOLVERINE TRADING, LLC</t>
+  </si>
+  <si>
+    <t>SCHWAB CHARLES INVESTMENT MANAGEMENT INC</t>
+  </si>
+  <si>
+    <t>NORTHERN TRUST CORP</t>
+  </si>
+  <si>
+    <t>UBS Group AG</t>
+  </si>
+  <si>
+    <t>GOLDMAN SACHS GROUP INC</t>
+  </si>
+  <si>
+    <t>Skaana Management L.P.</t>
+  </si>
+  <si>
+    <t>OPPENHEIMER &amp; CO INC</t>
+  </si>
+  <si>
+    <t>BARCLAYS PLC</t>
+  </si>
+  <si>
+    <t>MASTERS CAPITAL MANAGEMENT LLC</t>
+  </si>
+  <si>
+    <t>JPMORGAN CHASE &amp; CO</t>
+  </si>
+  <si>
+    <t>Cubist Systematic Strategies, LLC</t>
+  </si>
+  <si>
+    <t>Bank of New York Mellon Corp</t>
+  </si>
+  <si>
+    <t>Squarepoint Ops LLC</t>
+  </si>
+  <si>
+    <t>Gotham Asset Management, LLC</t>
+  </si>
+  <si>
+    <t>Once Capital Management, LLC</t>
+  </si>
+  <si>
+    <t>PEAK6 LLC</t>
+  </si>
+  <si>
+    <t>MILLENNIUM MANAGEMENT LLC</t>
+  </si>
+  <si>
+    <t>Caption Management, LLC</t>
+  </si>
+  <si>
+    <t>FIRST TRUST ADVISORS LP</t>
+  </si>
+  <si>
+    <t>LPL Financial LLC</t>
+  </si>
+  <si>
+    <t>Nuveen Asset Management, LLC</t>
+  </si>
+  <si>
+    <t>NATIONAL BANK OF CANADA /FI/</t>
+  </si>
+  <si>
+    <t>Swiss National Bank</t>
+  </si>
+  <si>
+    <t>IHT Wealth Management, LLC</t>
+  </si>
+  <si>
+    <t>UBS ASSET MANAGEMENT AMERICAS INC</t>
+  </si>
+  <si>
+    <t>SIMPLEX TRADING, LLC</t>
+  </si>
+  <si>
+    <t>VAN ECK ASSOCIATES CORP</t>
+  </si>
+  <si>
+    <t>Walleye Trading LLC</t>
+  </si>
+  <si>
+    <t>ExodusPoint Capital Management, LP</t>
+  </si>
+  <si>
+    <t>FMR LLC</t>
+  </si>
+  <si>
+    <t>TWINBEECH CAPITAL LP</t>
+  </si>
+  <si>
+    <t>RHUMBLINE ADVISERS</t>
+  </si>
+  <si>
+    <t>Walleye Capital LLC</t>
+  </si>
+  <si>
+    <t>DEUTSCHE BANK AG\</t>
+  </si>
+  <si>
+    <t>Marshall Wace LLP</t>
+  </si>
+  <si>
+    <t>Sender Co &amp; Partners, Inc.</t>
+  </si>
+  <si>
+    <t>TORONTO DOMINION BANK</t>
+  </si>
+  <si>
+    <t>Key Colony Management, LLC</t>
+  </si>
+  <si>
+    <t>FORA Capital, LLC</t>
+  </si>
+  <si>
+    <t>DnB Asset Management AS</t>
+  </si>
+  <si>
+    <t>PNC FINANCIAL SERVICES GROUP, INC.</t>
+  </si>
+  <si>
+    <t>BANK OF AMERICA CORP /DE/</t>
+  </si>
+  <si>
+    <t>BNP PARIBAS ARBITRAGE, SA</t>
+  </si>
+  <si>
+    <t>LEGAL &amp; GENERAL GROUP PLC</t>
+  </si>
+  <si>
+    <t>CALIFORNIA STATE TEACHERS RETIREMENT SYSTEM</t>
+  </si>
+  <si>
+    <t>Quinn Opportunity Partners LLC</t>
+  </si>
+  <si>
+    <t>ALLIANCEBERNSTEIN L.P.</t>
+  </si>
+  <si>
+    <t>WELLS FARGO &amp; COMPANY/MN</t>
+  </si>
+  <si>
+    <t>Privium Fund Management B.V.</t>
+  </si>
+  <si>
+    <t>Salvus Wealth Management, LLC</t>
+  </si>
+  <si>
+    <t>STATE OF WISCONSIN INVESTMENT BOARD</t>
+  </si>
+  <si>
+    <t>PRICE T ROWE ASSOCIATES INC /MD/</t>
+  </si>
+  <si>
+    <t>Dynamic Advisors Solutions LLC</t>
+  </si>
+  <si>
+    <t>LA FINANCIERE DE LECHIQUIER</t>
+  </si>
+  <si>
+    <t>Penserra Capital Management LLC</t>
+  </si>
+  <si>
+    <t>EAM Investors, LLC</t>
+  </si>
+  <si>
+    <t>Cetera Investment Advisers</t>
+  </si>
+  <si>
+    <t>Magnetar Financial LLC</t>
+  </si>
+  <si>
+    <t>Neuberger Berman Group LLC</t>
+  </si>
+  <si>
+    <t>MANUFACTURERS LIFE INSURANCE COMPANY, THE</t>
+  </si>
+  <si>
+    <t>MetLife Investment Advisors Company, LLC</t>
+  </si>
+  <si>
+    <t>State of New Jersey Common Pension Fund D</t>
+  </si>
+  <si>
+    <t>COMMONWEALTH EQUITY SERVICES, LLC</t>
+  </si>
+  <si>
+    <t>MIRAE ASSET GLOBAL ETFS HOLDINGS Ltd.</t>
+  </si>
+  <si>
+    <t>HighTower Advisors, LLC</t>
+  </si>
+  <si>
+    <t>Invesco Ltd.</t>
+  </si>
+  <si>
+    <t>Meteora Capital, LLC</t>
+  </si>
+  <si>
+    <t>SCOTIA CAPITAL INC.</t>
+  </si>
+  <si>
+    <t>Harvest Investment Services, LLC</t>
+  </si>
+  <si>
+    <t>Corebridge Financial, Inc.</t>
+  </si>
+  <si>
+    <t>IPG Investment Advisors LLC</t>
+  </si>
+  <si>
+    <t>RAYMOND JAMES FINANCIAL INC</t>
+  </si>
+  <si>
+    <t>Verition Fund Management LLC</t>
+  </si>
+  <si>
+    <t>Chicago Partners Investment Group LLC</t>
+  </si>
+  <si>
+    <t>INTECH INVESTMENT MANAGEMENT LLC</t>
+  </si>
+  <si>
+    <t>Advisory Services Network, LLC</t>
+  </si>
+  <si>
+    <t>Nebula Research &amp; Development LLC</t>
+  </si>
+  <si>
+    <t>Ensign Peak Advisors, Inc</t>
+  </si>
+  <si>
+    <t>TWO SIGMA INVESTMENTS, LP</t>
+  </si>
+  <si>
+    <t>STIFEL FINANCIAL CORP</t>
+  </si>
+  <si>
+    <t>IMC-Chicago, LLC</t>
+  </si>
+  <si>
+    <t>DIMENSIONAL FUND ADVISORS LP</t>
+  </si>
+  <si>
+    <t>Ionic Capital Management LLC</t>
+  </si>
+  <si>
+    <t>Engineers Gate Manager LP</t>
+  </si>
+  <si>
+    <t>Arizona State Retirement System</t>
+  </si>
+  <si>
+    <t>CAXTON ASSOCIATES LP</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Next Lauch</t>
+  </si>
+  <si>
+    <t>Targets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  25 BB satelittes to start generating revenue in the US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  45-60 Sats to start operating in Europe and Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  building the first and only global Cellular Broadband network in space to be accessible directly by everyday smartphones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5,8 billion mobile subscribers, which 3,4 billion have no cellullar broadband coverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $1,1T TAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  90% of earth surface doesnt have cellular coverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  First 5 commercial satellites lauched successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CEO Avellan owns a 25% economic interest in the Company and takes no salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3500 patents </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Internet up tp 120mbps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  95% vertically integrated manufacturing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  AT&amp;T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Verizon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rakuten Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  American Tower Corporation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Bell Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Google</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Vodafone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Building and testing 6 sats per month</t>
+  </si>
+  <si>
+    <t>Employees</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +639,19 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -319,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -330,6 +687,17 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,35 +836,38 @@
     <v>Finance</v>
     <v>4</v>
     <v>39.08</v>
-    <v>1.97</v>
-    <v>1.645</v>
-    <v>5.0408999999999997</v>
-    <v>0.19015100000000001</v>
+    <v>1.99</v>
+    <v>2.0156999999999998</v>
+    <v>-1.51</v>
+    <v>-1.4947999999999999E-2</v>
+    <v>-6.9972000000000006E-2</v>
+    <v>-0.3</v>
     <v>USD</v>
-    <v>AST SpaceMobile, Inc. is engaged in building a global cellular broadband network in space to operate directly with standard, unmodified mobile devices based on its intellectual property (IP) and patent portfolio, and designed for both commercial and government applications. Its SpaceMobile Service is being designed to provide high-speed cellular broadband services to end-users who are out of terrestrial cellular coverage using existing mobile devices. The Company is engaged in designing and developing the constellation of BlueBird (BB) satellites in advance of launching its planned space-based cellular broadband network distributed through a constellation of low earth orbit (LEO) satellites. The Company intends to continue testing the capabilities of the BlueWalker 3 (BW3) test satellite, including further testing with cellular service providers and devices. The Company primarily operates in the United States, India, Scotland, Spain and Israel.</v>
-    <v>272</v>
+    <v>AST SpaceMobile, Inc. is engaged in building a global cellular broadband network in space to operate directly with standard, unmodified mobile devices based on its intellectual property (IP) and patent portfolio and designed for both commercial and government applications. The Company is engaged in designing and developing the constellation of BlueBird (BB) satellites and has planned space-based Cellular Broadband network distributed through a constellation of low Earth orbit (LEO) satellites. Its SpaceMobile Service is being designed to provide high-speed cellular broadband services to end-users who are out of terrestrial cellular coverage using existing mobile devices. The Company intends to continue testing capabilities of the BW3 test satellite, including further testing with cellular service providers and the government. The Company has operations in India, Scotland, Spain, Israel and Lithuania.</v>
+    <v>578</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>Midland Intl. Air &amp; Space Port, 2901 Enterprise Lane, MIDLAND, TX, 79706 US</v>
-    <v>32.97</v>
+    <v>21.1524</v>
     <v>Telecommunications Services</v>
     <v>Stock</v>
-    <v>45698.735216457811</v>
+    <v>45751.999980693749</v>
     <v>0</v>
-    <v>27.3948</v>
-    <v>9141400011</v>
+    <v>18.5</v>
+    <v>6351991000</v>
     <v>AST SPACEMOBILE, INC.</v>
     <v>AST SPACEMOBILE, INC.</v>
-    <v>27.46</v>
+    <v>20.6</v>
     <v>0</v>
-    <v>26.51</v>
-    <v>31.550899999999999</v>
-    <v>289735000</v>
+    <v>21.58</v>
+    <v>20.07</v>
+    <v>19.77</v>
+    <v>316491800</v>
     <v>ASTS</v>
     <v>AST SPACEMOBILE, INC. (XNAS:ASTS)</v>
-    <v>25194497</v>
-    <v>10602248</v>
+    <v>13320592</v>
+    <v>11406631</v>
     <v>2019</v>
   </rv>
   <rv s="2">
@@ -527,7 +898,9 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -548,6 +921,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -564,7 +938,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -575,13 +949,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -647,13 +1024,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -698,6 +1081,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -705,6 +1091,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -1083,111 +1472,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0551950A-879A-4EFB-9826-4CC7283C8A59}">
-  <dimension ref="B2:L17"/>
+  <dimension ref="B2:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.109375" style="1"/>
+    <col min="6" max="6" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="1" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="2" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">+_FV(L2,"Price")</f>
-        <v>31.550899999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+        <v>20.07</v>
+      </c>
+      <c r="M3" s="4">
+        <f ca="1">+L3*1534</f>
+        <v>30787.38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1">
+        <v>169</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <f>227.101453+11.227292+78.163078</f>
+        <v>316.49182300000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="15">
         <v>2017</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="1">
-        <f>200.344605+11.227292+78.163078</f>
-        <v>289.73497500000002</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="4">
         <f ca="1">+L3*L4</f>
-        <v>9141.3992227274994</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+        <v>6351.9908876100008</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="1">
+        <v>175</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="15">
         <v>2021</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="4">
-        <f>516.389+2.497</f>
-        <v>518.88599999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="4">
@@ -1195,65 +1590,128 @@
         <v>200.887</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.23</v>
-      </c>
-      <c r="K8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="K8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="L8" s="4">
         <f ca="1">+L5-L6+L7</f>
-        <v>8823.4002227274996</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+        <v>5552.8778876100005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0.50280000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>174</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="1">
+        <v>578</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="14">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1263,164 +1721,182 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D7BE69-E223-491A-9610-FD200A14B7A9}">
-  <dimension ref="A2:AN31"/>
+  <dimension ref="A2:AR31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V9" sqref="V9"/>
+      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="21" width="9.109375" style="1"/>
-    <col min="22" max="22" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="25" width="9.109375" style="1"/>
+    <col min="26" max="26" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="3">
+        <v>2019</v>
+      </c>
+      <c r="M2" s="3">
+        <v>2020</v>
+      </c>
+      <c r="N2" s="3">
+        <f t="shared" ref="N2:P2" si="0">+O2-1</f>
+        <v>2021</v>
+      </c>
+      <c r="O2" s="3">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="P2" s="3">
+        <f>+Q2-1</f>
+        <v>2023</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>2024</v>
+      </c>
+      <c r="R2" s="3">
+        <f>+Q2+1</f>
+        <v>2025</v>
+      </c>
+      <c r="S2" s="3">
+        <f t="shared" ref="S2:W2" si="1">+R2+1</f>
+        <v>2026</v>
+      </c>
+      <c r="T2" s="3">
+        <f t="shared" si="1"/>
+        <v>2027</v>
+      </c>
+      <c r="U2" s="3">
+        <f t="shared" si="1"/>
+        <v>2028</v>
+      </c>
+      <c r="V2" s="3">
+        <f t="shared" si="1"/>
+        <v>2029</v>
+      </c>
+      <c r="W2" s="3">
+        <f t="shared" si="1"/>
+        <v>2030</v>
+      </c>
+      <c r="X2" s="3">
+        <f t="shared" ref="X2" si="2">+W2+1</f>
+        <v>2031</v>
+      </c>
+      <c r="Y2" s="3">
+        <f t="shared" ref="Y2" si="3">+X2+1</f>
+        <v>2032</v>
+      </c>
+      <c r="Z2" s="3">
+        <f t="shared" ref="Z2" si="4">+Y2+1</f>
+        <v>2033</v>
+      </c>
+      <c r="AA2" s="3">
+        <f t="shared" ref="AA2" si="5">+Z2+1</f>
+        <v>2034</v>
+      </c>
+      <c r="AB2" s="3">
+        <f t="shared" ref="AB2" si="6">+AA2+1</f>
+        <v>2035</v>
+      </c>
+      <c r="AC2" s="3">
+        <f t="shared" ref="AC2" si="7">+AB2+1</f>
+        <v>2036</v>
+      </c>
+      <c r="AD2" s="3">
+        <f t="shared" ref="AD2" si="8">+AC2+1</f>
+        <v>2037</v>
+      </c>
+      <c r="AE2" s="3">
+        <f t="shared" ref="AE2" si="9">+AD2+1</f>
+        <v>2038</v>
+      </c>
+      <c r="AF2" s="3">
+        <f t="shared" ref="AF2" si="10">+AE2+1</f>
+        <v>2039</v>
+      </c>
+      <c r="AG2" s="3">
+        <f t="shared" ref="AG2" si="11">+AF2+1</f>
+        <v>2040</v>
+      </c>
+      <c r="AH2" s="3">
+        <f t="shared" ref="AH2" si="12">+AG2+1</f>
+        <v>2041</v>
+      </c>
+      <c r="AI2" s="3">
+        <f t="shared" ref="AI2" si="13">+AH2+1</f>
+        <v>2042</v>
+      </c>
+      <c r="AJ2" s="3">
+        <f t="shared" ref="AJ2" si="14">+AI2+1</f>
+        <v>2043</v>
+      </c>
+      <c r="AK2" s="3">
+        <f t="shared" ref="AK2" si="15">+AJ2+1</f>
+        <v>2044</v>
+      </c>
+      <c r="AL2" s="3">
+        <f t="shared" ref="AL2" si="16">+AK2+1</f>
+        <v>2045</v>
+      </c>
+      <c r="AM2" s="3">
+        <f t="shared" ref="AM2" si="17">+AL2+1</f>
+        <v>2046</v>
+      </c>
+      <c r="AN2" s="3">
+        <f t="shared" ref="AN2" si="18">+AM2+1</f>
+        <v>2047</v>
+      </c>
+      <c r="AO2" s="3">
+        <f t="shared" ref="AO2" si="19">+AN2+1</f>
+        <v>2048</v>
+      </c>
+      <c r="AP2" s="3">
+        <f t="shared" ref="AP2" si="20">+AO2+1</f>
+        <v>2049</v>
+      </c>
+      <c r="AQ2" s="3">
+        <f t="shared" ref="AQ2" si="21">+AP2+1</f>
+        <v>2050</v>
+      </c>
+      <c r="AR2" s="3">
+        <f t="shared" ref="AR2" si="22">+AQ2+1</f>
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="3">
-        <v>2024</v>
-      </c>
-      <c r="N2" s="3">
-        <f>+M2+1</f>
-        <v>2025</v>
-      </c>
-      <c r="O2" s="3">
-        <f t="shared" ref="O2:S2" si="0">+N2+1</f>
-        <v>2026</v>
-      </c>
-      <c r="P2" s="3">
-        <f t="shared" si="0"/>
-        <v>2027</v>
-      </c>
-      <c r="Q2" s="3">
-        <f t="shared" si="0"/>
-        <v>2028</v>
-      </c>
-      <c r="R2" s="3">
-        <f t="shared" si="0"/>
-        <v>2029</v>
-      </c>
-      <c r="S2" s="3">
-        <f t="shared" si="0"/>
-        <v>2030</v>
-      </c>
-      <c r="T2" s="3">
-        <f t="shared" ref="T2" si="1">+S2+1</f>
-        <v>2031</v>
-      </c>
-      <c r="U2" s="3">
-        <f t="shared" ref="U2" si="2">+T2+1</f>
-        <v>2032</v>
-      </c>
-      <c r="V2" s="3">
-        <f t="shared" ref="V2" si="3">+U2+1</f>
-        <v>2033</v>
-      </c>
-      <c r="W2" s="3">
-        <f t="shared" ref="W2" si="4">+V2+1</f>
-        <v>2034</v>
-      </c>
-      <c r="X2" s="3">
-        <f t="shared" ref="X2" si="5">+W2+1</f>
-        <v>2035</v>
-      </c>
-      <c r="Y2" s="3">
-        <f t="shared" ref="Y2" si="6">+X2+1</f>
-        <v>2036</v>
-      </c>
-      <c r="Z2" s="3">
-        <f t="shared" ref="Z2" si="7">+Y2+1</f>
-        <v>2037</v>
-      </c>
-      <c r="AA2" s="3">
-        <f t="shared" ref="AA2" si="8">+Z2+1</f>
-        <v>2038</v>
-      </c>
-      <c r="AB2" s="3">
-        <f t="shared" ref="AB2" si="9">+AA2+1</f>
-        <v>2039</v>
-      </c>
-      <c r="AC2" s="3">
-        <f t="shared" ref="AC2" si="10">+AB2+1</f>
-        <v>2040</v>
-      </c>
-      <c r="AD2" s="3">
-        <f t="shared" ref="AD2" si="11">+AC2+1</f>
-        <v>2041</v>
-      </c>
-      <c r="AE2" s="3">
-        <f t="shared" ref="AE2" si="12">+AD2+1</f>
-        <v>2042</v>
-      </c>
-      <c r="AF2" s="3">
-        <f t="shared" ref="AF2" si="13">+AE2+1</f>
-        <v>2043</v>
-      </c>
-      <c r="AG2" s="3">
-        <f t="shared" ref="AG2" si="14">+AF2+1</f>
-        <v>2044</v>
-      </c>
-      <c r="AH2" s="3">
-        <f t="shared" ref="AH2" si="15">+AG2+1</f>
-        <v>2045</v>
-      </c>
-      <c r="AI2" s="3">
-        <f t="shared" ref="AI2" si="16">+AH2+1</f>
-        <v>2046</v>
-      </c>
-      <c r="AJ2" s="3">
-        <f t="shared" ref="AJ2" si="17">+AI2+1</f>
-        <v>2047</v>
-      </c>
-      <c r="AK2" s="3">
-        <f t="shared" ref="AK2" si="18">+AJ2+1</f>
-        <v>2048</v>
-      </c>
-      <c r="AL2" s="3">
-        <f t="shared" ref="AL2" si="19">+AK2+1</f>
-        <v>2049</v>
-      </c>
-      <c r="AM2" s="3">
-        <f t="shared" ref="AM2" si="20">+AL2+1</f>
-        <v>2050</v>
-      </c>
-      <c r="AN2" s="3">
-        <f t="shared" ref="AN2" si="21">+AM2+1</f>
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1435,68 +1911,88 @@
         <v>5</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3" si="22">+I3</f>
+        <f t="shared" ref="J3" si="23">+I3</f>
         <v>5</v>
       </c>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
       <c r="M3" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N3" s="3">
-        <f>+M3+N4</f>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="O3" s="3">
-        <f t="shared" ref="O3:P3" si="23">+N3+O4</f>
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="P3" s="3">
-        <f t="shared" si="23"/>
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="3">
-        <f t="shared" ref="Q3" si="24">+P3+Q4</f>
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="R3" s="3">
-        <f t="shared" ref="R3" si="25">+Q3+R4</f>
-        <v>135</v>
+        <f>+Q3+S4</f>
+        <v>36</v>
       </c>
       <c r="S3" s="3">
-        <f t="shared" ref="S3" si="26">+R3+S4</f>
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+        <f t="shared" ref="S3:T3" si="24">+R3+S4</f>
+        <v>66</v>
+      </c>
+      <c r="T3" s="3">
+        <f t="shared" si="24"/>
+        <v>106</v>
+      </c>
+      <c r="U3" s="3">
+        <f t="shared" ref="U3" si="25">+T3+U4</f>
+        <v>126</v>
+      </c>
+      <c r="V3" s="3">
+        <f t="shared" ref="V3" si="26">+U3+V4</f>
+        <v>146</v>
+      </c>
+      <c r="W3" s="3">
+        <f t="shared" ref="W3" si="27">+V3+W4</f>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1">
         <v>5</v>
       </c>
-      <c r="N4" s="1">
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>5</v>
+      </c>
+      <c r="R4" s="1">
+        <v>30</v>
+      </c>
+      <c r="S4" s="1">
+        <v>30</v>
+      </c>
+      <c r="T4" s="1">
+        <v>40</v>
+      </c>
+      <c r="U4" s="1">
         <v>20</v>
       </c>
-      <c r="O4" s="1">
-        <v>30</v>
-      </c>
-      <c r="P4" s="1">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="1">
+      <c r="V4" s="1">
         <v>20</v>
       </c>
-      <c r="R4" s="1">
+      <c r="W4" s="1">
         <v>20</v>
       </c>
-      <c r="S4" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1507,9 +2003,9 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1519,29 +2015,29 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4">
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4">
         <v>0</v>
       </c>
-      <c r="O6" s="4">
+      <c r="S6" s="4">
         <v>1492</v>
       </c>
-      <c r="P6" s="4">
+      <c r="T6" s="4">
         <v>4698</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="U6" s="4">
         <v>8222</v>
       </c>
-      <c r="R6" s="4">
+      <c r="V6" s="4">
         <v>10360</v>
       </c>
-      <c r="S6" s="4">
+      <c r="W6" s="4">
         <v>11784</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1551,29 +2047,29 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4">
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4">
         <v>0</v>
       </c>
-      <c r="O7" s="4">
+      <c r="S7" s="4">
         <v>22373</v>
       </c>
-      <c r="P7" s="4">
+      <c r="T7" s="4">
         <v>93966</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="U7" s="4">
         <v>184995</v>
       </c>
-      <c r="R7" s="4">
+      <c r="V7" s="4">
         <v>241727</v>
       </c>
-      <c r="S7" s="4">
+      <c r="W7" s="4">
         <v>299137</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1583,29 +2079,29 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4">
         <v>0</v>
       </c>
-      <c r="O8" s="4">
+      <c r="S8" s="4">
         <v>0</v>
       </c>
-      <c r="P8" s="4">
+      <c r="T8" s="4">
         <v>18032</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="U8" s="4">
         <v>66267</v>
       </c>
-      <c r="R8" s="4">
+      <c r="V8" s="4">
         <v>99400</v>
       </c>
-      <c r="S8" s="4">
+      <c r="W8" s="4">
         <v>125244</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1615,17 +2111,17 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1635,29 +2131,29 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4">
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4">
         <v>10</v>
       </c>
-      <c r="O10" s="4">
+      <c r="S10" s="4">
         <v>10</v>
       </c>
-      <c r="P10" s="4">
+      <c r="T10" s="4">
         <v>11</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="U10" s="4">
         <v>11</v>
       </c>
-      <c r="R10" s="4">
+      <c r="V10" s="4">
         <v>11</v>
       </c>
-      <c r="S10" s="4">
+      <c r="W10" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1667,29 +2163,29 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4">
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4">
         <v>5</v>
       </c>
-      <c r="O11" s="4">
+      <c r="S11" s="4">
         <v>5</v>
       </c>
-      <c r="P11" s="4">
+      <c r="T11" s="4">
         <v>5.99</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="U11" s="4">
         <v>5.99</v>
       </c>
-      <c r="R11" s="4">
+      <c r="V11" s="4">
         <v>5.99</v>
       </c>
-      <c r="S11" s="4">
+      <c r="W11" s="4">
         <v>5.99</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1699,27 +2195,27 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4">
-        <v>1</v>
-      </c>
-      <c r="O12" s="4">
-        <v>1</v>
-      </c>
-      <c r="P12" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>1</v>
-      </c>
+      <c r="Q12" s="4"/>
       <c r="R12" s="4">
         <v>1</v>
       </c>
       <c r="S12" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="T12" s="4">
+        <v>1</v>
+      </c>
+      <c r="U12" s="4">
+        <v>1</v>
+      </c>
+      <c r="V12" s="4">
+        <v>1</v>
+      </c>
+      <c r="W12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1728,17 +2224,17 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1748,29 +2244,29 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="M14" s="4">
-        <v>10.7</v>
-      </c>
-      <c r="N14" s="4">
+      <c r="Q14" s="4">
+        <v>4</v>
+      </c>
+      <c r="R14" s="4">
         <v>50</v>
       </c>
-      <c r="O14" s="4">
+      <c r="S14" s="4">
         <v>75</v>
       </c>
-      <c r="P14" s="4">
+      <c r="T14" s="4">
         <v>150</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="U14" s="4">
         <v>270</v>
       </c>
-      <c r="R14" s="4">
+      <c r="V14" s="4">
         <v>442.8</v>
       </c>
-      <c r="S14" s="4">
+      <c r="W14" s="4">
         <v>669.5</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1779,17 +2275,17 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1805,465 +2301,481 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="9">
-        <f t="shared" ref="M16" si="27">+(M6*M10*12+M7*M11+M8*M12*12)/1000+M14</f>
-        <v>10.7</v>
-      </c>
-      <c r="N16" s="9">
-        <f>+(N6*N10*12+N7*N11+N8*N12*12)/1000+N14</f>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="9">
+        <f t="shared" ref="Q16" si="28">+(Q6*Q10*12+Q7*Q11+Q8*Q12*12)/1000+Q14</f>
+        <v>4</v>
+      </c>
+      <c r="R16" s="9">
+        <f>+(R6*R10*12+R7*R11+R8*R12*12)/1000+R14</f>
         <v>50</v>
       </c>
-      <c r="O16" s="9">
-        <f t="shared" ref="O16:S16" si="28">+(O6*O10*12+O7*O11+O8*O12*12)/1000+O14</f>
+      <c r="S16" s="9">
+        <f t="shared" ref="S16:W16" si="29">+(S6*S10*12+S7*S11+S8*S12*12)/1000+S14</f>
         <v>365.90499999999997</v>
       </c>
-      <c r="P16" s="9">
-        <f t="shared" si="28"/>
+      <c r="T16" s="9">
+        <f t="shared" si="29"/>
         <v>1549.3763399999998</v>
       </c>
-      <c r="Q16" s="9">
-        <f t="shared" si="28"/>
+      <c r="U16" s="9">
+        <f t="shared" si="29"/>
         <v>3258.6280499999998</v>
       </c>
-      <c r="R16" s="9">
-        <f t="shared" si="28"/>
+      <c r="V16" s="9">
+        <f t="shared" si="29"/>
         <v>4451.0647300000001</v>
       </c>
-      <c r="S16" s="9">
-        <f t="shared" si="28"/>
+      <c r="W16" s="9">
+        <f t="shared" si="29"/>
         <v>5661.15463</v>
       </c>
     </row>
-    <row r="17" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
+    <row r="17" spans="2:44" x14ac:dyDescent="0.25">
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
-    </row>
-    <row r="18" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+    </row>
+    <row r="18" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M18" s="4">
+        <v>39</v>
+      </c>
+      <c r="Q18" s="4">
         <v>0.3</v>
       </c>
-      <c r="N18" s="4">
+      <c r="R18" s="4">
         <v>1</v>
       </c>
-      <c r="O18" s="4">
+      <c r="S18" s="4">
         <v>5.5</v>
       </c>
-      <c r="P18" s="4">
+      <c r="T18" s="4">
         <v>15.8</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="U18" s="4">
         <v>25.1</v>
       </c>
-      <c r="R18" s="4">
+      <c r="V18" s="4">
         <v>25.9</v>
       </c>
-      <c r="S18" s="4">
+      <c r="W18" s="4">
         <v>24.1</v>
       </c>
     </row>
-    <row r="19" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M19" s="4">
-        <f t="shared" ref="M19" si="29">+M16-M18</f>
-        <v>10.399999999999999</v>
-      </c>
-      <c r="N19" s="4">
-        <f>+N16-N18</f>
+        <v>41</v>
+      </c>
+      <c r="Q19" s="4">
+        <f t="shared" ref="Q19" si="30">+Q16-Q18</f>
+        <v>3.7</v>
+      </c>
+      <c r="R19" s="4">
+        <f>+R16-R18</f>
         <v>49</v>
       </c>
-      <c r="O19" s="4">
-        <f t="shared" ref="O19:S19" si="30">+O16-O18</f>
+      <c r="S19" s="4">
+        <f t="shared" ref="S19:W19" si="31">+S16-S18</f>
         <v>360.40499999999997</v>
       </c>
-      <c r="P19" s="4">
-        <f t="shared" si="30"/>
+      <c r="T19" s="4">
+        <f t="shared" si="31"/>
         <v>1533.5763399999998</v>
       </c>
-      <c r="Q19" s="4">
-        <f t="shared" si="30"/>
+      <c r="U19" s="4">
+        <f t="shared" si="31"/>
         <v>3233.5280499999999</v>
       </c>
-      <c r="R19" s="4">
-        <f t="shared" si="30"/>
+      <c r="V19" s="4">
+        <f t="shared" si="31"/>
         <v>4425.1647300000004</v>
       </c>
-      <c r="S19" s="4">
-        <f t="shared" si="30"/>
+      <c r="W19" s="4">
+        <f t="shared" si="31"/>
         <v>5637.0546299999996</v>
       </c>
     </row>
-    <row r="20" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="4">
         <v>146.6</v>
       </c>
-      <c r="N20" s="4">
+      <c r="R20" s="4">
         <v>135.5</v>
       </c>
-      <c r="O20" s="4">
+      <c r="S20" s="4">
         <v>138.9</v>
       </c>
-      <c r="P20" s="4">
+      <c r="T20" s="4">
         <v>142.4</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="U20" s="4">
         <v>145.9</v>
       </c>
-      <c r="R20" s="4">
+      <c r="V20" s="4">
         <v>149.6</v>
       </c>
-      <c r="S20" s="4">
+      <c r="W20" s="4">
         <v>153.30000000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M21" s="4">
-        <f>+M19-M20</f>
-        <v>-136.19999999999999</v>
-      </c>
-      <c r="N21" s="4">
-        <f t="shared" ref="N21:S21" si="31">+N19-N20</f>
+        <v>42</v>
+      </c>
+      <c r="Q21" s="4">
+        <f>+Q19-Q20</f>
+        <v>-142.9</v>
+      </c>
+      <c r="R21" s="4">
+        <f t="shared" ref="R21:W21" si="32">+R19-R20</f>
         <v>-86.5</v>
       </c>
-      <c r="O21" s="4">
-        <f t="shared" si="31"/>
+      <c r="S21" s="4">
+        <f t="shared" si="32"/>
         <v>221.50499999999997</v>
       </c>
-      <c r="P21" s="4">
-        <f t="shared" si="31"/>
+      <c r="T21" s="4">
+        <f t="shared" si="32"/>
         <v>1391.1763399999998</v>
       </c>
-      <c r="Q21" s="4">
-        <f t="shared" si="31"/>
+      <c r="U21" s="4">
+        <f t="shared" si="32"/>
         <v>3087.6280499999998</v>
       </c>
-      <c r="R21" s="4">
-        <f t="shared" si="31"/>
+      <c r="V21" s="4">
+        <f t="shared" si="32"/>
         <v>4275.5647300000001</v>
       </c>
-      <c r="S21" s="4">
-        <f t="shared" si="31"/>
+      <c r="W21" s="4">
+        <f t="shared" si="32"/>
         <v>5483.7546299999995</v>
       </c>
     </row>
-    <row r="22" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M22" s="4">
+        <v>26</v>
+      </c>
+      <c r="Q22" s="4">
         <v>80.3</v>
       </c>
-      <c r="N22" s="4">
+      <c r="R22" s="4">
         <v>200</v>
       </c>
-      <c r="O22" s="4">
+      <c r="S22" s="4">
         <v>300</v>
       </c>
-      <c r="P22" s="4">
+      <c r="T22" s="4">
         <v>350</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="U22" s="4">
         <v>400</v>
       </c>
-      <c r="R22" s="4">
+      <c r="V22" s="4">
         <v>450</v>
       </c>
-      <c r="S22" s="4">
+      <c r="W22" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="2:40" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M24" s="1">
-        <v>95.8</v>
-      </c>
-      <c r="N24" s="1">
+        <v>45</v>
+      </c>
+      <c r="M24" s="4">
+        <v>30.4</v>
+      </c>
+      <c r="N24" s="4">
+        <v>54.8</v>
+      </c>
+      <c r="O24" s="4">
+        <v>57.3</v>
+      </c>
+      <c r="P24" s="4">
+        <v>118.8</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>174.12700000000001</v>
+      </c>
+      <c r="R24" s="1">
         <v>385</v>
       </c>
-      <c r="O24" s="1">
+      <c r="S24" s="1">
         <v>440</v>
       </c>
-      <c r="P24" s="1">
+      <c r="T24" s="1">
         <v>475</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="U24" s="1">
         <v>275</v>
       </c>
-      <c r="R24" s="1">
+      <c r="V24" s="1">
         <v>280</v>
       </c>
-      <c r="S24" s="1">
+      <c r="W24" s="1">
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M25" s="9">
-        <f>+M21-M24</f>
-        <v>-232</v>
-      </c>
-      <c r="N25" s="9">
-        <f t="shared" ref="N25:S25" si="32">+N21-N24</f>
+        <v>44</v>
+      </c>
+      <c r="Q25" s="9">
+        <f>+Q21-Q24</f>
+        <v>-317.02700000000004</v>
+      </c>
+      <c r="R25" s="9">
+        <f t="shared" ref="R25:W25" si="33">+R21-R24</f>
         <v>-471.5</v>
       </c>
-      <c r="O25" s="9">
-        <f t="shared" si="32"/>
+      <c r="S25" s="9">
+        <f t="shared" si="33"/>
         <v>-218.49500000000003</v>
       </c>
-      <c r="P25" s="9">
-        <f t="shared" si="32"/>
+      <c r="T25" s="9">
+        <f t="shared" si="33"/>
         <v>916.17633999999975</v>
       </c>
-      <c r="Q25" s="9">
-        <f t="shared" si="32"/>
+      <c r="U25" s="9">
+        <f t="shared" si="33"/>
         <v>2812.6280499999998</v>
-      </c>
-      <c r="R25" s="9">
-        <f t="shared" si="32"/>
-        <v>3995.5647300000001</v>
-      </c>
-      <c r="S25" s="9">
-        <f t="shared" si="32"/>
-        <v>5198.7546299999995</v>
-      </c>
-      <c r="T25" s="9">
-        <f>+S25*1.1</f>
-        <v>5718.6300929999998</v>
-      </c>
-      <c r="U25" s="9">
-        <f t="shared" ref="U25:V25" si="33">+T25*1.1</f>
-        <v>6290.4931022999999</v>
       </c>
       <c r="V25" s="9">
         <f t="shared" si="33"/>
+        <v>3995.5647300000001</v>
+      </c>
+      <c r="W25" s="9">
+        <f t="shared" si="33"/>
+        <v>5198.7546299999995</v>
+      </c>
+      <c r="X25" s="9">
+        <f>+W25*1.1</f>
+        <v>5718.6300929999998</v>
+      </c>
+      <c r="Y25" s="9">
+        <f t="shared" ref="Y25:Z25" si="34">+X25*1.1</f>
+        <v>6290.4931022999999</v>
+      </c>
+      <c r="Z25" s="9">
+        <f t="shared" si="34"/>
         <v>6919.5424125300005</v>
       </c>
-      <c r="W25" s="9">
-        <f>+V25*1.06</f>
+      <c r="AA25" s="9">
+        <f>+Z25*1.06</f>
         <v>7334.7149572818007</v>
       </c>
-      <c r="X25" s="9">
-        <f t="shared" ref="X25:Y25" si="34">+W25*1.06</f>
+      <c r="AB25" s="9">
+        <f t="shared" ref="AB25:AC25" si="35">+AA25*1.06</f>
         <v>7774.7978547187095</v>
-      </c>
-      <c r="Y25" s="9">
-        <f t="shared" si="34"/>
-        <v>8241.2857260018318</v>
-      </c>
-      <c r="Z25" s="9">
-        <f>+Y25*1.025</f>
-        <v>8447.3178691518769</v>
-      </c>
-      <c r="AA25" s="9">
-        <f t="shared" ref="AA25:AN25" si="35">+Z25*1.025</f>
-        <v>8658.5008158806722</v>
-      </c>
-      <c r="AB25" s="9">
-        <f t="shared" si="35"/>
-        <v>8874.9633362776876</v>
       </c>
       <c r="AC25" s="9">
         <f t="shared" si="35"/>
+        <v>8241.2857260018318</v>
+      </c>
+      <c r="AD25" s="9">
+        <f>+AC25*1.025</f>
+        <v>8447.3178691518769</v>
+      </c>
+      <c r="AE25" s="9">
+        <f t="shared" ref="AE25:AR25" si="36">+AD25*1.025</f>
+        <v>8658.5008158806722</v>
+      </c>
+      <c r="AF25" s="9">
+        <f t="shared" si="36"/>
+        <v>8874.9633362776876</v>
+      </c>
+      <c r="AG25" s="9">
+        <f t="shared" si="36"/>
         <v>9096.8374196846289</v>
       </c>
-      <c r="AD25" s="9">
-        <f t="shared" si="35"/>
+      <c r="AH25" s="9">
+        <f t="shared" si="36"/>
         <v>9324.2583551767439</v>
       </c>
-      <c r="AE25" s="9">
-        <f t="shared" si="35"/>
+      <c r="AI25" s="9">
+        <f t="shared" si="36"/>
         <v>9557.3648140561618</v>
       </c>
-      <c r="AF25" s="9">
-        <f t="shared" si="35"/>
+      <c r="AJ25" s="9">
+        <f t="shared" si="36"/>
         <v>9796.298934407565</v>
       </c>
-      <c r="AG25" s="9">
-        <f t="shared" si="35"/>
+      <c r="AK25" s="9">
+        <f t="shared" si="36"/>
         <v>10041.206407767753</v>
       </c>
-      <c r="AH25" s="9">
-        <f t="shared" si="35"/>
+      <c r="AL25" s="9">
+        <f t="shared" si="36"/>
         <v>10292.236567961947</v>
       </c>
-      <c r="AI25" s="9">
-        <f t="shared" si="35"/>
+      <c r="AM25" s="9">
+        <f t="shared" si="36"/>
         <v>10549.542482160994</v>
       </c>
-      <c r="AJ25" s="9">
-        <f t="shared" si="35"/>
+      <c r="AN25" s="9">
+        <f t="shared" si="36"/>
         <v>10813.281044215018</v>
       </c>
-      <c r="AK25" s="9">
-        <f t="shared" si="35"/>
+      <c r="AO25" s="9">
+        <f t="shared" si="36"/>
         <v>11083.613070320393</v>
       </c>
-      <c r="AL25" s="9">
-        <f t="shared" si="35"/>
+      <c r="AP25" s="9">
+        <f t="shared" si="36"/>
         <v>11360.703397078401</v>
       </c>
-      <c r="AM25" s="9">
-        <f t="shared" si="35"/>
+      <c r="AQ25" s="9">
+        <f t="shared" si="36"/>
         <v>11644.720982005361</v>
       </c>
-      <c r="AN25" s="9">
-        <f t="shared" si="35"/>
+      <c r="AR25" s="9">
+        <f t="shared" si="36"/>
         <v>11935.839006555494</v>
       </c>
     </row>
-    <row r="27" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N27" s="5">
-        <f>+N16/M16-1</f>
-        <v>3.6728971962616823</v>
-      </c>
-      <c r="O27" s="5">
-        <f t="shared" ref="O27:S27" si="36">+O16/N16-1</f>
+        <v>48</v>
+      </c>
+      <c r="R27" s="5">
+        <f>+R16/Q16-1</f>
+        <v>11.5</v>
+      </c>
+      <c r="S27" s="5">
+        <f t="shared" ref="S27:W27" si="37">+S16/R16-1</f>
         <v>6.3180999999999994</v>
       </c>
-      <c r="P27" s="5">
-        <f t="shared" si="36"/>
+      <c r="T27" s="5">
+        <f t="shared" si="37"/>
         <v>3.2343677730558476</v>
       </c>
-      <c r="Q27" s="5">
-        <f t="shared" si="36"/>
+      <c r="U27" s="5">
+        <f t="shared" si="37"/>
         <v>1.1031869184216405</v>
       </c>
-      <c r="R27" s="5">
-        <f t="shared" si="36"/>
+      <c r="V27" s="5">
+        <f t="shared" si="37"/>
         <v>0.36593212287606747</v>
       </c>
-      <c r="S27" s="5">
-        <f t="shared" si="36"/>
+      <c r="W27" s="5">
+        <f t="shared" si="37"/>
         <v>0.27186526671788025</v>
       </c>
-      <c r="U27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="V27" s="5">
+      <c r="Y27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z27" s="5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="U28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V28" s="7">
-        <f>+NPV(V27,M25:AN25)</f>
-        <v>14097.456158412591</v>
-      </c>
-    </row>
-    <row r="29" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="Y28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z28" s="7">
+        <f>+NPV(Z27,Q25:AR25)</f>
+        <v>14026.600325079256</v>
+      </c>
+    </row>
+    <row r="29" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N29" s="8">
-        <f>+N19/N16</f>
+        <v>49</v>
+      </c>
+      <c r="R29" s="8">
+        <f>+R19/R16</f>
         <v>0.98</v>
       </c>
-      <c r="O29" s="8">
-        <f t="shared" ref="O29:S29" si="37">+O19/O16</f>
+      <c r="S29" s="8">
+        <f t="shared" ref="S29:W29" si="38">+S19/S16</f>
         <v>0.98496877604842792</v>
       </c>
-      <c r="P29" s="8">
-        <f t="shared" si="37"/>
+      <c r="T29" s="8">
+        <f t="shared" si="38"/>
         <v>0.98980234847267645</v>
       </c>
-      <c r="Q29" s="8">
-        <f t="shared" si="37"/>
+      <c r="U29" s="8">
+        <f t="shared" si="38"/>
         <v>0.99229737189551293</v>
       </c>
-      <c r="R29" s="8">
-        <f t="shared" si="37"/>
+      <c r="V29" s="8">
+        <f t="shared" si="38"/>
         <v>0.99418116752483188</v>
       </c>
-      <c r="S29" s="8">
-        <f t="shared" si="37"/>
+      <c r="W29" s="8">
+        <f t="shared" si="38"/>
         <v>0.99574291790719016</v>
       </c>
     </row>
-    <row r="30" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N30" s="8">
-        <f>+N21/N16</f>
+        <v>50</v>
+      </c>
+      <c r="R30" s="8">
+        <f>+R21/R16</f>
         <v>-1.73</v>
       </c>
-      <c r="O30" s="8">
-        <f t="shared" ref="O30:S30" si="38">+O21/O16</f>
+      <c r="S30" s="8">
+        <f t="shared" ref="S30:W30" si="39">+S21/S16</f>
         <v>0.60536204752599709</v>
       </c>
-      <c r="P30" s="8">
-        <f t="shared" si="38"/>
+      <c r="T30" s="8">
+        <f t="shared" si="39"/>
         <v>0.89789440053021585</v>
       </c>
-      <c r="Q30" s="8">
-        <f t="shared" si="38"/>
+      <c r="U30" s="8">
+        <f t="shared" si="39"/>
         <v>0.94752392805309582</v>
       </c>
-      <c r="R30" s="8">
-        <f t="shared" si="38"/>
+      <c r="V30" s="8">
+        <f t="shared" si="39"/>
         <v>0.96057123168370551</v>
       </c>
-      <c r="S30" s="8">
-        <f t="shared" si="38"/>
+      <c r="W30" s="8">
+        <f t="shared" si="39"/>
         <v>0.96866363637906838</v>
       </c>
     </row>
-    <row r="31" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N31" s="8">
-        <f>+N25/N16</f>
+        <v>51</v>
+      </c>
+      <c r="R31" s="8">
+        <f>+R25/R16</f>
         <v>-9.43</v>
       </c>
-      <c r="O31" s="8">
-        <f t="shared" ref="O31:S31" si="39">+O25/O16</f>
+      <c r="S31" s="8">
+        <f t="shared" ref="S31:W31" si="40">+S25/S16</f>
         <v>-0.5971358685997733</v>
       </c>
-      <c r="P31" s="8">
-        <f t="shared" si="39"/>
+      <c r="T31" s="8">
+        <f t="shared" si="40"/>
         <v>0.59131943372776674</v>
       </c>
-      <c r="Q31" s="8">
-        <f t="shared" si="39"/>
+      <c r="U31" s="8">
+        <f t="shared" si="40"/>
         <v>0.86313258427883477</v>
       </c>
-      <c r="R31" s="8">
-        <f t="shared" si="39"/>
+      <c r="V31" s="8">
+        <f t="shared" si="40"/>
         <v>0.89766493465485953</v>
       </c>
-      <c r="S31" s="8">
-        <f t="shared" si="39"/>
+      <c r="W31" s="8">
+        <f t="shared" si="40"/>
         <v>0.91832054938940955</v>
       </c>
     </row>
@@ -2271,4 +2783,1238 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679FA9C9-1139-4656-8734-F0EA2121EFCD}">
+  <dimension ref="B2:E102"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="11">
+        <v>316233106</v>
+      </c>
+      <c r="E3" s="12">
+        <f ca="1">+D3*main!$L$3</f>
+        <v>6346798437.4200001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="11">
+        <v>227739932</v>
+      </c>
+      <c r="E4" s="12">
+        <f ca="1">+D4*main!$L$3</f>
+        <v>4570740435.2399998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="11">
+        <v>171667427</v>
+      </c>
+      <c r="E5" s="12">
+        <f ca="1">+D5*main!$L$3</f>
+        <v>3445365259.8899999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="11">
+        <v>115895675</v>
+      </c>
+      <c r="E6" s="12">
+        <f ca="1">+D6*main!$L$3</f>
+        <v>2326026197.25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="11">
+        <v>84936235</v>
+      </c>
+      <c r="E7" s="12">
+        <f ca="1">+D7*main!$L$3</f>
+        <v>1704670236.45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="11">
+        <v>79618888</v>
+      </c>
+      <c r="E8" s="12">
+        <f ca="1">+D8*main!$L$3</f>
+        <v>1597951082.1600001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="11">
+        <v>76713867</v>
+      </c>
+      <c r="E9" s="12">
+        <f ca="1">+D9*main!$L$3</f>
+        <v>1539647310.6900001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="11">
+        <v>73801144</v>
+      </c>
+      <c r="E10" s="12">
+        <f ca="1">+D10*main!$L$3</f>
+        <v>1481188960.0799999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="11">
+        <v>72496182</v>
+      </c>
+      <c r="E11" s="12">
+        <f ca="1">+D11*main!$L$3</f>
+        <v>1454998372.74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="11">
+        <v>65218097</v>
+      </c>
+      <c r="E12" s="12">
+        <f ca="1">+D12*main!$L$3</f>
+        <v>1308927206.79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="11">
+        <v>59523000</v>
+      </c>
+      <c r="E13" s="12">
+        <f ca="1">+D13*main!$L$3</f>
+        <v>1194626610</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="11">
+        <v>42778309</v>
+      </c>
+      <c r="E14" s="12">
+        <f ca="1">+D14*main!$L$3</f>
+        <v>858560661.63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="11">
+        <v>40995590</v>
+      </c>
+      <c r="E15" s="12">
+        <f ca="1">+D15*main!$L$3</f>
+        <v>822781491.29999995</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="11">
+        <v>36417672</v>
+      </c>
+      <c r="E16" s="12">
+        <f ca="1">+D16*main!$L$3</f>
+        <v>730902677.03999996</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="11">
+        <v>27904237</v>
+      </c>
+      <c r="E17" s="12">
+        <f ca="1">+D17*main!$L$3</f>
+        <v>560038036.59000003</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="11">
+        <v>26727644</v>
+      </c>
+      <c r="E18" s="12">
+        <f ca="1">+D18*main!$L$3</f>
+        <v>536423815.07999998</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="11">
+        <v>26017481</v>
+      </c>
+      <c r="E19" s="12">
+        <f ca="1">+D19*main!$L$3</f>
+        <v>522170843.67000002</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="11">
+        <v>24669909</v>
+      </c>
+      <c r="E20" s="12">
+        <f ca="1">+D20*main!$L$3</f>
+        <v>495125073.63</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="11">
+        <v>24255357</v>
+      </c>
+      <c r="E21" s="12">
+        <f ca="1">+D21*main!$L$3</f>
+        <v>486805014.99000001</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="11">
+        <v>20266550</v>
+      </c>
+      <c r="E22" s="12">
+        <f ca="1">+D22*main!$L$3</f>
+        <v>406749658.5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="11">
+        <v>18020729</v>
+      </c>
+      <c r="E23" s="12">
+        <f ca="1">+D23*main!$L$3</f>
+        <v>361676031.03000003</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="11">
+        <v>17870000</v>
+      </c>
+      <c r="E24" s="12">
+        <f ca="1">+D24*main!$L$3</f>
+        <v>358650900</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="11">
+        <v>16880000</v>
+      </c>
+      <c r="E25" s="12">
+        <f ca="1">+D25*main!$L$3</f>
+        <v>338781600</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="11">
+        <v>16359759</v>
+      </c>
+      <c r="E26" s="12">
+        <f ca="1">+D26*main!$L$3</f>
+        <v>328340363.13</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="11">
+        <v>16259660</v>
+      </c>
+      <c r="E27" s="12">
+        <f ca="1">+D27*main!$L$3</f>
+        <v>326331376.19999999</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="11">
+        <v>13539397</v>
+      </c>
+      <c r="E28" s="12">
+        <f ca="1">+D28*main!$L$3</f>
+        <v>271735697.79000002</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="11">
+        <v>12584568</v>
+      </c>
+      <c r="E29" s="12">
+        <f ca="1">+D29*main!$L$3</f>
+        <v>252572279.75999999</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="11">
+        <v>10863778</v>
+      </c>
+      <c r="E30" s="12">
+        <f ca="1">+D30*main!$L$3</f>
+        <v>218036024.46000001</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C31" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="11">
+        <v>10560550</v>
+      </c>
+      <c r="E31" s="12">
+        <f ca="1">+D31*main!$L$3</f>
+        <v>211950238.5</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="11">
+        <v>9777740</v>
+      </c>
+      <c r="E32" s="12">
+        <f ca="1">+D32*main!$L$3</f>
+        <v>196239241.80000001</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="11">
+        <v>8495641</v>
+      </c>
+      <c r="E33" s="12">
+        <f ca="1">+D33*main!$L$3</f>
+        <v>170507514.87</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="11">
+        <v>8018000</v>
+      </c>
+      <c r="E34" s="12">
+        <f ca="1">+D34*main!$L$3</f>
+        <v>160921260</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C35" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="11">
+        <v>7799509</v>
+      </c>
+      <c r="E35" s="12">
+        <f ca="1">+D35*main!$L$3</f>
+        <v>156536145.63</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C36" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="11">
+        <v>7484170</v>
+      </c>
+      <c r="E36" s="12">
+        <f ca="1">+D36*main!$L$3</f>
+        <v>150207291.90000001</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="11">
+        <v>7426504</v>
+      </c>
+      <c r="E37" s="12">
+        <f ca="1">+D37*main!$L$3</f>
+        <v>149049935.28</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C38" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="11">
+        <v>7367255</v>
+      </c>
+      <c r="E38" s="12">
+        <f ca="1">+D38*main!$L$3</f>
+        <v>147860807.84999999</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C39" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="11">
+        <v>6625400</v>
+      </c>
+      <c r="E39" s="12">
+        <f ca="1">+D39*main!$L$3</f>
+        <v>132971778</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="11">
+        <v>5962860</v>
+      </c>
+      <c r="E40" s="12">
+        <f ca="1">+D40*main!$L$3</f>
+        <v>119674600.2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C41" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="11">
+        <v>5819590</v>
+      </c>
+      <c r="E41" s="12">
+        <f ca="1">+D41*main!$L$3</f>
+        <v>116799171.3</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C42" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="11">
+        <v>5744000</v>
+      </c>
+      <c r="E42" s="12">
+        <f ca="1">+D42*main!$L$3</f>
+        <v>115282080</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C43" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="11">
+        <v>5460000</v>
+      </c>
+      <c r="E43" s="12">
+        <f ca="1">+D43*main!$L$3</f>
+        <v>109582200</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C44" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="11">
+        <v>5348850</v>
+      </c>
+      <c r="E44" s="12">
+        <f ca="1">+D44*main!$L$3</f>
+        <v>107351419.5</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C45" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="11">
+        <v>4802000</v>
+      </c>
+      <c r="E45" s="12">
+        <f ca="1">+D45*main!$L$3</f>
+        <v>96376140</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C46" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="11">
+        <v>4784668</v>
+      </c>
+      <c r="E46" s="12">
+        <f ca="1">+D46*main!$L$3</f>
+        <v>96028286.760000005</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C47" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="11">
+        <v>4683525</v>
+      </c>
+      <c r="E47" s="12">
+        <f ca="1">+D47*main!$L$3</f>
+        <v>93998346.75</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C48" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="11">
+        <v>4572733</v>
+      </c>
+      <c r="E48" s="12">
+        <f ca="1">+D48*main!$L$3</f>
+        <v>91774751.310000002</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C49" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="11">
+        <v>4509703</v>
+      </c>
+      <c r="E49" s="12">
+        <f ca="1">+D49*main!$L$3</f>
+        <v>90509739.210000008</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C50" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="11">
+        <v>4498584</v>
+      </c>
+      <c r="E50" s="12">
+        <f ca="1">+D50*main!$L$3</f>
+        <v>90286580.879999995</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C51" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="11">
+        <v>4380003</v>
+      </c>
+      <c r="E51" s="12">
+        <f ca="1">+D51*main!$L$3</f>
+        <v>87906660.210000008</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C52" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" s="11">
+        <v>4304906</v>
+      </c>
+      <c r="E52" s="12">
+        <f ca="1">+D52*main!$L$3</f>
+        <v>86399463.420000002</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C53" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="11">
+        <v>4220000</v>
+      </c>
+      <c r="E53" s="12">
+        <f ca="1">+D53*main!$L$3</f>
+        <v>84695400</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C54" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="11">
+        <v>4135600</v>
+      </c>
+      <c r="E54" s="12">
+        <f ca="1">+D54*main!$L$3</f>
+        <v>83001492</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C55" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="11">
+        <v>3824755</v>
+      </c>
+      <c r="E55" s="12">
+        <f ca="1">+D55*main!$L$3</f>
+        <v>76762832.849999994</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C56" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="11">
+        <v>3761455</v>
+      </c>
+      <c r="E56" s="12">
+        <f ca="1">+D56*main!$L$3</f>
+        <v>75492401.849999994</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C57" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="11">
+        <v>3486248</v>
+      </c>
+      <c r="E57" s="12">
+        <f ca="1">+D57*main!$L$3</f>
+        <v>69968997.359999999</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C58" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" s="11">
+        <v>3279193</v>
+      </c>
+      <c r="E58" s="12">
+        <f ca="1">+D58*main!$L$3</f>
+        <v>65813403.509999998</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C59" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="11">
+        <v>3263621</v>
+      </c>
+      <c r="E59" s="12">
+        <f ca="1">+D59*main!$L$3</f>
+        <v>65500873.469999999</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C60" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="11">
+        <v>3129593</v>
+      </c>
+      <c r="E60" s="12">
+        <f ca="1">+D60*main!$L$3</f>
+        <v>62810931.509999998</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C61" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="11">
+        <v>3110773</v>
+      </c>
+      <c r="E61" s="12">
+        <f ca="1">+D61*main!$L$3</f>
+        <v>62433214.109999999</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C62" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" s="11">
+        <v>3070050</v>
+      </c>
+      <c r="E62" s="12">
+        <f ca="1">+D62*main!$L$3</f>
+        <v>61615903.5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C63" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="11">
+        <v>2993879</v>
+      </c>
+      <c r="E63" s="12">
+        <f ca="1">+D63*main!$L$3</f>
+        <v>60087151.530000001</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C64" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" s="11">
+        <v>2486044</v>
+      </c>
+      <c r="E64" s="12">
+        <f ca="1">+D64*main!$L$3</f>
+        <v>49894903.079999998</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C65" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" s="11">
+        <v>2352650</v>
+      </c>
+      <c r="E65" s="12">
+        <f ca="1">+D65*main!$L$3</f>
+        <v>47217685.5</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C66" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" s="11">
+        <v>2290975</v>
+      </c>
+      <c r="E66" s="12">
+        <f ca="1">+D66*main!$L$3</f>
+        <v>45979868.25</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C67" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="11">
+        <v>2286101</v>
+      </c>
+      <c r="E67" s="12">
+        <f ca="1">+D67*main!$L$3</f>
+        <v>45882047.07</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C68" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="11">
+        <v>2234000</v>
+      </c>
+      <c r="E68" s="12">
+        <f ca="1">+D68*main!$L$3</f>
+        <v>44836380</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C69" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" s="11">
+        <v>2225000</v>
+      </c>
+      <c r="E69" s="12">
+        <f ca="1">+D69*main!$L$3</f>
+        <v>44655750</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C70" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D70" s="11">
+        <v>1161000</v>
+      </c>
+      <c r="E70" s="12">
+        <f ca="1">+D70*main!$L$3</f>
+        <v>23301270</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C71" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" s="11">
+        <v>2108000</v>
+      </c>
+      <c r="E71" s="12">
+        <f ca="1">+D71*main!$L$3</f>
+        <v>42307560</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C72" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72" s="11">
+        <v>1868089</v>
+      </c>
+      <c r="E72" s="12">
+        <f ca="1">+D72*main!$L$3</f>
+        <v>37492546.230000004</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C73" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" s="11">
+        <v>1829011</v>
+      </c>
+      <c r="E73" s="12">
+        <f ca="1">+D73*main!$L$3</f>
+        <v>36708250.770000003</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C74" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D74" s="11">
+        <v>1821837</v>
+      </c>
+      <c r="E74" s="12">
+        <f ca="1">+D74*main!$L$3</f>
+        <v>36564268.590000004</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C75" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D75" s="11">
+        <v>1785630</v>
+      </c>
+      <c r="E75" s="12">
+        <f ca="1">+D75*main!$L$3</f>
+        <v>35837594.100000001</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C76" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D76" s="11">
+        <v>1780967</v>
+      </c>
+      <c r="E76" s="12">
+        <f ca="1">+D76*main!$L$3</f>
+        <v>35744007.689999998</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C77" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77" s="11">
+        <v>1720916</v>
+      </c>
+      <c r="E77" s="12">
+        <f ca="1">+D77*main!$L$3</f>
+        <v>34538784.119999997</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C78" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D78" s="11">
+        <v>1694436</v>
+      </c>
+      <c r="E78" s="12">
+        <f ca="1">+D78*main!$L$3</f>
+        <v>34007330.520000003</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C79" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" s="11">
+        <v>1663000</v>
+      </c>
+      <c r="E79" s="12">
+        <f ca="1">+D79*main!$L$3</f>
+        <v>33376410</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C80" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D80" s="11">
+        <v>1608854</v>
+      </c>
+      <c r="E80" s="12">
+        <f ca="1">+D80*main!$L$3</f>
+        <v>32289699.780000001</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C81" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D81" s="11">
+        <v>1584990</v>
+      </c>
+      <c r="E81" s="12">
+        <f ca="1">+D81*main!$L$3</f>
+        <v>31810749.300000001</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C82" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D82" s="11">
+        <v>1491073</v>
+      </c>
+      <c r="E82" s="12">
+        <f ca="1">+D82*main!$L$3</f>
+        <v>29925835.109999999</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C83" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D83" s="11">
+        <v>1477000</v>
+      </c>
+      <c r="E83" s="12">
+        <f ca="1">+D83*main!$L$3</f>
+        <v>29643390</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C84" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D84" s="11">
+        <v>1472760</v>
+      </c>
+      <c r="E84" s="12">
+        <f ca="1">+D84*main!$L$3</f>
+        <v>29558293.199999999</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C85" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D85" s="11">
+        <v>1460542</v>
+      </c>
+      <c r="E85" s="12">
+        <f ca="1">+D85*main!$L$3</f>
+        <v>29313077.940000001</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C86" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D86" s="11">
+        <v>1405323</v>
+      </c>
+      <c r="E86" s="12">
+        <f ca="1">+D86*main!$L$3</f>
+        <v>28204832.609999999</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C87" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D87" s="11">
+        <v>1397875</v>
+      </c>
+      <c r="E87" s="12">
+        <f ca="1">+D87*main!$L$3</f>
+        <v>28055351.25</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C88" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D88" s="11">
+        <v>1350219</v>
+      </c>
+      <c r="E88" s="12">
+        <f ca="1">+D88*main!$L$3</f>
+        <v>27098895.330000002</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C89" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D89" s="11">
+        <v>1307947</v>
+      </c>
+      <c r="E89" s="12">
+        <f ca="1">+D89*main!$L$3</f>
+        <v>26250496.289999999</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C90" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D90" s="11">
+        <v>1392424</v>
+      </c>
+      <c r="E90" s="12">
+        <f ca="1">+D90*main!$L$3</f>
+        <v>27945949.68</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C91" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D91" s="11">
+        <v>1302102</v>
+      </c>
+      <c r="E91" s="12">
+        <f ca="1">+D91*main!$L$3</f>
+        <v>26133187.140000001</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C92" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D92" s="11">
+        <v>1191770</v>
+      </c>
+      <c r="E92" s="12">
+        <f ca="1">+D92*main!$L$3</f>
+        <v>23918823.899999999</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C93" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D93" s="11">
+        <v>1120980</v>
+      </c>
+      <c r="E93" s="12">
+        <f ca="1">+D93*main!$L$3</f>
+        <v>22498068.600000001</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C94" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D94" s="11">
+        <v>1100365</v>
+      </c>
+      <c r="E94" s="12">
+        <f ca="1">+D94*main!$L$3</f>
+        <v>22084325.550000001</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C95" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D95" s="11">
+        <v>1094541</v>
+      </c>
+      <c r="E95" s="12">
+        <f ca="1">+D95*main!$L$3</f>
+        <v>21967437.870000001</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C96" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D96" s="11">
+        <v>1066649</v>
+      </c>
+      <c r="E96" s="12">
+        <f ca="1">+D96*main!$L$3</f>
+        <v>21407645.43</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C97" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D97" s="11">
+        <v>1054093</v>
+      </c>
+      <c r="E97" s="12">
+        <f ca="1">+D97*main!$L$3</f>
+        <v>21155646.510000002</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C98" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D98" s="11">
+        <v>1048607</v>
+      </c>
+      <c r="E98" s="12">
+        <f ca="1">+D98*main!$L$3</f>
+        <v>21045542.490000002</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C99" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D99" s="11">
+        <v>1040272</v>
+      </c>
+      <c r="E99" s="12">
+        <f ca="1">+D99*main!$L$3</f>
+        <v>20878259.039999999</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C100" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D100" s="11">
+        <v>981382</v>
+      </c>
+      <c r="E100" s="12">
+        <f ca="1">+D100*main!$L$3</f>
+        <v>19696336.740000002</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C101" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D101" s="11">
+        <v>978027</v>
+      </c>
+      <c r="E101" s="12">
+        <f ca="1">+D101*main!$L$3</f>
+        <v>19629001.890000001</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C102" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D102" s="11">
+        <v>952939</v>
+      </c>
+      <c r="E102" s="12">
+        <f ca="1">+D102*main!$L$3</f>
+        <v>19125485.73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>